--- a/Model/Old/node_lists.xlsx
+++ b/Model/Old/node_lists.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="8">
   <si>
     <t>station</t>
   </si>
@@ -122,7 +122,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -401,10 +423,13 @@
   <dimension ref="A1:B179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -552,7 +577,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>6024</v>
+        <v>6048</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -560,7 +585,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>6048</v>
+        <v>6177</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -568,7 +593,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>6177</v>
+        <v>6178</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -576,31 +601,31 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>6178</v>
+        <v>6403</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>6403</v>
+        <v>6407</v>
       </c>
       <c r="B23" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>6407</v>
+        <v>6408</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>6408</v>
+        <v>6650</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
@@ -608,15 +633,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>6650</v>
+        <v>6651</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>6651</v>
+        <v>6654</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -624,7 +649,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>6654</v>
+        <v>6655</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -632,7 +657,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>6655</v>
+        <v>6656</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -640,7 +665,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>6656</v>
+        <v>6660</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -648,7 +673,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>6660</v>
+        <v>6665</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -656,7 +681,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>6665</v>
+        <v>6666</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -664,7 +689,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>6666</v>
+        <v>6678</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -672,15 +697,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>6678</v>
+        <v>6680</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>6679</v>
+        <v>6683</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -688,7 +713,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>6680</v>
+        <v>6695</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
@@ -696,7 +721,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>6683</v>
+        <v>6701</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -704,15 +729,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>6695</v>
+        <v>6888</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>6701</v>
+        <v>6890</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -720,7 +745,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>6888</v>
+        <v>6891</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -728,23 +753,23 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>6890</v>
+        <v>6907</v>
       </c>
       <c r="B41" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>6891</v>
+        <v>6930</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>6907</v>
+        <v>6938</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
@@ -752,15 +777,15 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>6930</v>
+        <v>6939</v>
       </c>
       <c r="B44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>6938</v>
+        <v>6941</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
@@ -768,15 +793,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>6939</v>
+        <v>6942</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>6941</v>
+        <v>6953</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -784,23 +809,23 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6942</v>
+        <v>6955</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>6953</v>
+        <v>6956</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>6955</v>
+        <v>6966</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -808,7 +833,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>6956</v>
+        <v>7011</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -816,7 +841,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6966</v>
+        <v>7026</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -824,7 +849,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>6982</v>
+        <v>7031</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
@@ -832,15 +857,15 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>7011</v>
+        <v>7046</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>7026</v>
+        <v>7061</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -848,39 +873,39 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>7031</v>
+        <v>7065</v>
       </c>
       <c r="B56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>7046</v>
+        <v>7067</v>
       </c>
       <c r="B57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>7061</v>
+        <v>7555</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>7064</v>
+        <v>7557</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>7065</v>
+        <v>7559</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -888,7 +913,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>7067</v>
+        <v>7599</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -896,23 +921,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>7555</v>
+        <v>7600</v>
       </c>
       <c r="B62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>7557</v>
+        <v>7601</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>7559</v>
+        <v>7602</v>
       </c>
       <c r="B64" t="s">
         <v>1</v>
@@ -920,7 +945,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>7599</v>
+        <v>7608</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -928,63 +953,63 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>7600</v>
+        <v>7618</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>7601</v>
+        <v>9441</v>
       </c>
       <c r="B67" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>7602</v>
+        <v>9505</v>
       </c>
       <c r="B68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>7608</v>
+        <v>9506</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>7618</v>
+        <v>9824</v>
       </c>
       <c r="B70" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>7798</v>
+        <v>9850</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>9441</v>
+        <v>9851</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>9505</v>
+        <v>9873</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
@@ -992,15 +1017,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>9506</v>
+        <v>10009</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>9824</v>
+        <v>10017</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -1008,15 +1033,15 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>9850</v>
+        <v>10018</v>
       </c>
       <c r="B76" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>9851</v>
+        <v>10125</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
@@ -1024,15 +1049,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>9873</v>
+        <v>10126</v>
       </c>
       <c r="B78" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>10009</v>
+        <v>10127</v>
       </c>
       <c r="B79" t="s">
         <v>0</v>
@@ -1040,7 +1065,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>10015</v>
+        <v>10707</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
@@ -1048,167 +1073,167 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>10017</v>
+        <v>12162</v>
       </c>
       <c r="B81" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>10018</v>
+        <v>14366</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>10019</v>
+        <v>14549</v>
       </c>
       <c r="B83" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>10125</v>
+        <v>15630</v>
       </c>
       <c r="B84" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>10126</v>
+        <v>15661</v>
       </c>
       <c r="B85" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>10127</v>
+        <v>15690</v>
       </c>
       <c r="B86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>10128</v>
+        <v>15691</v>
       </c>
       <c r="B87" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>10129</v>
+        <v>16289</v>
       </c>
       <c r="B88" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>10707</v>
+        <v>16404</v>
       </c>
       <c r="B89" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>12162</v>
+        <v>28471</v>
       </c>
       <c r="B90" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>12414</v>
+        <v>28509</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>14366</v>
+        <v>28601</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>14549</v>
+        <v>28636</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>15630</v>
+        <v>28662</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>15661</v>
+        <v>28667</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>15662</v>
+        <v>28703</v>
       </c>
       <c r="B96" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>15690</v>
+        <v>28711</v>
       </c>
       <c r="B97" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>15691</v>
+        <v>28714</v>
       </c>
       <c r="B98" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>16289</v>
+        <v>28719</v>
       </c>
       <c r="B99" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>16404</v>
+        <v>28946</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>28471</v>
+        <v>28991</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
@@ -1216,7 +1241,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>28509</v>
+        <v>29002</v>
       </c>
       <c r="B102" t="s">
         <v>4</v>
@@ -1224,7 +1249,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>28601</v>
+        <v>29015</v>
       </c>
       <c r="B103" t="s">
         <v>4</v>
@@ -1232,7 +1257,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>28636</v>
+        <v>29021</v>
       </c>
       <c r="B104" t="s">
         <v>4</v>
@@ -1240,105 +1265,9 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>28662</v>
+        <v>29262</v>
       </c>
       <c r="B105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>28667</v>
-      </c>
-      <c r="B106" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>28703</v>
-      </c>
-      <c r="B107" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>28711</v>
-      </c>
-      <c r="B108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>28714</v>
-      </c>
-      <c r="B109" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>28719</v>
-      </c>
-      <c r="B110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>28946</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>28991</v>
-      </c>
-      <c r="B112" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>28994</v>
-      </c>
-      <c r="B113" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>29002</v>
-      </c>
-      <c r="B114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>29015</v>
-      </c>
-      <c r="B115" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>29021</v>
-      </c>
-      <c r="B116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>29262</v>
-      </c>
-      <c r="B117" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1578,16 +1507,19 @@
   <sortState ref="A2:B179">
     <sortCondition ref="A2:A179"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A105">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:B313"/>
   <sheetViews>
-    <sheetView topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1727,23 +1659,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>1918</v>
+        <v>1924</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>1924</v>
+        <v>1960</v>
       </c>
       <c r="B18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>1960</v>
+        <v>2042</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -1751,7 +1683,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>2042</v>
+        <v>2415</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -1759,7 +1691,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2050</v>
+        <v>2416</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -1767,7 +1699,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1775,7 +1707,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2416</v>
+        <v>2418</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1783,7 +1715,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2417</v>
+        <v>2907</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -1791,23 +1723,23 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2418</v>
+        <v>3088</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>2907</v>
+        <v>3484</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>3087</v>
+        <v>3485</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1815,23 +1747,23 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>3088</v>
+        <v>3493</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>3484</v>
+        <v>3494</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>3485</v>
+        <v>3497</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
@@ -1839,23 +1771,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>3493</v>
+        <v>3498</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>3494</v>
+        <v>4095</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>3497</v>
+        <v>4096</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
@@ -1863,7 +1795,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>3498</v>
+        <v>4098</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
@@ -1871,31 +1803,31 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>4095</v>
+        <v>4099</v>
       </c>
       <c r="B35" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>4096</v>
+        <v>4169</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>4098</v>
+        <v>4459</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>4099</v>
+        <v>4475</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
@@ -1903,71 +1835,71 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>4166</v>
+        <v>4484</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>4169</v>
+        <v>4517</v>
       </c>
       <c r="B40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>4459</v>
+        <v>5117</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>4475</v>
+        <v>5608</v>
       </c>
       <c r="B42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>4484</v>
+        <v>6131</v>
       </c>
       <c r="B43" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>4496</v>
+        <v>6400</v>
       </c>
       <c r="B44" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>4517</v>
+        <v>6402</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>5117</v>
+        <v>6404</v>
       </c>
       <c r="B46" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>5608</v>
+        <v>6405</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
@@ -1975,15 +1907,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>6131</v>
+        <v>6422</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>6400</v>
+        <v>6423</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1991,7 +1923,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>6402</v>
+        <v>6586</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -1999,39 +1931,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>6404</v>
+        <v>6641</v>
       </c>
       <c r="B51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>6405</v>
+        <v>6646</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>6422</v>
+        <v>6647</v>
       </c>
       <c r="B53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>6423</v>
+        <v>6652</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>6586</v>
+        <v>6657</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -2039,7 +1971,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>6641</v>
+        <v>6658</v>
       </c>
       <c r="B56" t="s">
         <v>1</v>
@@ -2047,7 +1979,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>6646</v>
+        <v>6659</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
@@ -2055,23 +1987,23 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>6647</v>
+        <v>6661</v>
       </c>
       <c r="B58" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>6652</v>
+        <v>6662</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>6657</v>
+        <v>6663</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -2079,15 +2011,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>6658</v>
+        <v>6664</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>6659</v>
+        <v>6667</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
@@ -2095,7 +2027,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>6661</v>
+        <v>6668</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
@@ -2103,15 +2035,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>6662</v>
+        <v>6669</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>6663</v>
+        <v>6670</v>
       </c>
       <c r="B65" t="s">
         <v>1</v>
@@ -2119,15 +2051,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>6664</v>
+        <v>6671</v>
       </c>
       <c r="B66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>6667</v>
+        <v>6673</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
@@ -2135,31 +2067,31 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>6668</v>
+        <v>6674</v>
       </c>
       <c r="B68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>6669</v>
+        <v>6675</v>
       </c>
       <c r="B69" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>6670</v>
+        <v>6676</v>
       </c>
       <c r="B70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>6671</v>
+        <v>6677</v>
       </c>
       <c r="B71" t="s">
         <v>1</v>
@@ -2167,15 +2099,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>6673</v>
+        <v>6681</v>
       </c>
       <c r="B72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>6674</v>
+        <v>6682</v>
       </c>
       <c r="B73" t="s">
         <v>1</v>
@@ -2183,15 +2115,15 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>6675</v>
+        <v>6684</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>6676</v>
+        <v>6685</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
@@ -2199,7 +2131,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>6677</v>
+        <v>6687</v>
       </c>
       <c r="B76" t="s">
         <v>1</v>
@@ -2207,15 +2139,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>6681</v>
+        <v>6688</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>6682</v>
+        <v>6689</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
@@ -2223,23 +2155,23 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>6684</v>
+        <v>6690</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>6685</v>
+        <v>6691</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>6687</v>
+        <v>6692</v>
       </c>
       <c r="B81" t="s">
         <v>1</v>
@@ -2247,15 +2179,15 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>6688</v>
+        <v>6697</v>
       </c>
       <c r="B82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>6689</v>
+        <v>6698</v>
       </c>
       <c r="B83" t="s">
         <v>1</v>
@@ -2263,7 +2195,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>6690</v>
+        <v>6699</v>
       </c>
       <c r="B84" t="s">
         <v>2</v>
@@ -2271,7 +2203,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>6691</v>
+        <v>6700</v>
       </c>
       <c r="B85" t="s">
         <v>1</v>
@@ -2279,15 +2211,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>6692</v>
+        <v>6703</v>
       </c>
       <c r="B86" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>6697</v>
+        <v>6889</v>
       </c>
       <c r="B87" t="s">
         <v>1</v>
@@ -2295,7 +2227,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>6698</v>
+        <v>6892</v>
       </c>
       <c r="B88" t="s">
         <v>1</v>
@@ -2303,15 +2235,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>6699</v>
+        <v>6893</v>
       </c>
       <c r="B89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>6700</v>
+        <v>6894</v>
       </c>
       <c r="B90" t="s">
         <v>1</v>
@@ -2319,7 +2251,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>6703</v>
+        <v>6895</v>
       </c>
       <c r="B91" t="s">
         <v>2</v>
@@ -2327,15 +2259,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>6889</v>
+        <v>6897</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>6892</v>
+        <v>6900</v>
       </c>
       <c r="B93" t="s">
         <v>1</v>
@@ -2343,7 +2275,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>6893</v>
+        <v>6901</v>
       </c>
       <c r="B94" t="s">
         <v>1</v>
@@ -2351,31 +2283,31 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>6894</v>
+        <v>6902</v>
       </c>
       <c r="B95" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>6895</v>
+        <v>6903</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>6897</v>
+        <v>6904</v>
       </c>
       <c r="B97" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>6900</v>
+        <v>6905</v>
       </c>
       <c r="B98" t="s">
         <v>1</v>
@@ -2383,7 +2315,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>6901</v>
+        <v>6906</v>
       </c>
       <c r="B99" t="s">
         <v>1</v>
@@ -2391,7 +2323,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>6902</v>
+        <v>6912</v>
       </c>
       <c r="B100" t="s">
         <v>2</v>
@@ -2399,23 +2331,23 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>6903</v>
+        <v>6916</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>6904</v>
+        <v>6922</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>6905</v>
+        <v>6940</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -2423,15 +2355,15 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>6906</v>
+        <v>6954</v>
       </c>
       <c r="B104" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>6912</v>
+        <v>6964</v>
       </c>
       <c r="B105" t="s">
         <v>2</v>
@@ -2439,7 +2371,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>6916</v>
+        <v>6965</v>
       </c>
       <c r="B106" t="s">
         <v>2</v>
@@ -2447,23 +2379,23 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>6922</v>
+        <v>6967</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>6940</v>
+        <v>6968</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>6954</v>
+        <v>6969</v>
       </c>
       <c r="B109" t="s">
         <v>2</v>
@@ -2471,7 +2403,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>6964</v>
+        <v>6971</v>
       </c>
       <c r="B110" t="s">
         <v>2</v>
@@ -2479,7 +2411,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>6965</v>
+        <v>6972</v>
       </c>
       <c r="B111" t="s">
         <v>2</v>
@@ -2487,15 +2419,15 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>6967</v>
+        <v>6974</v>
       </c>
       <c r="B112" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>6968</v>
+        <v>6976</v>
       </c>
       <c r="B113" t="s">
         <v>2</v>
@@ -2503,15 +2435,15 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>6969</v>
+        <v>6977</v>
       </c>
       <c r="B114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>6971</v>
+        <v>6978</v>
       </c>
       <c r="B115" t="s">
         <v>2</v>
@@ -2519,7 +2451,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>6972</v>
+        <v>6980</v>
       </c>
       <c r="B116" t="s">
         <v>2</v>
@@ -2527,7 +2459,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>6974</v>
+        <v>6981</v>
       </c>
       <c r="B117" t="s">
         <v>2</v>
@@ -2535,7 +2467,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>6976</v>
+        <v>6984</v>
       </c>
       <c r="B118" t="s">
         <v>2</v>
@@ -2543,7 +2475,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>6977</v>
+        <v>6986</v>
       </c>
       <c r="B119" t="s">
         <v>1</v>
@@ -2551,7 +2483,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>6978</v>
+        <v>6987</v>
       </c>
       <c r="B120" t="s">
         <v>2</v>
@@ -2559,23 +2491,23 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>6980</v>
+        <v>7014</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>6981</v>
+        <v>7041</v>
       </c>
       <c r="B122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>6984</v>
+        <v>7044</v>
       </c>
       <c r="B123" t="s">
         <v>2</v>
@@ -2583,15 +2515,15 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>6986</v>
+        <v>7045</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>6987</v>
+        <v>7047</v>
       </c>
       <c r="B125" t="s">
         <v>2</v>
@@ -2599,7 +2531,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>6991</v>
+        <v>7049</v>
       </c>
       <c r="B126" t="s">
         <v>2</v>
@@ -2607,7 +2539,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>7014</v>
+        <v>7062</v>
       </c>
       <c r="B127" t="s">
         <v>1</v>
@@ -2615,7 +2547,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>7041</v>
+        <v>7066</v>
       </c>
       <c r="B128" t="s">
         <v>1</v>
@@ -2623,31 +2555,31 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>7044</v>
+        <v>7089</v>
       </c>
       <c r="B129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>7045</v>
+        <v>7092</v>
       </c>
       <c r="B130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>7047</v>
+        <v>7566</v>
       </c>
       <c r="B131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>7049</v>
+        <v>7587</v>
       </c>
       <c r="B132" t="s">
         <v>2</v>
@@ -2655,7 +2587,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>7050</v>
+        <v>7588</v>
       </c>
       <c r="B133" t="s">
         <v>1</v>
@@ -2663,15 +2595,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>7062</v>
+        <v>7589</v>
       </c>
       <c r="B134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>7066</v>
+        <v>7590</v>
       </c>
       <c r="B135" t="s">
         <v>1</v>
@@ -2679,7 +2611,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>7089</v>
+        <v>7591</v>
       </c>
       <c r="B136" t="s">
         <v>1</v>
@@ -2687,7 +2619,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>7091</v>
+        <v>7592</v>
       </c>
       <c r="B137" t="s">
         <v>1</v>
@@ -2695,47 +2627,47 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>7092</v>
+        <v>7597</v>
       </c>
       <c r="B138" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>7566</v>
+        <v>7607</v>
       </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>7587</v>
+        <v>7619</v>
       </c>
       <c r="B140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>7588</v>
+        <v>7699</v>
       </c>
       <c r="B141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>7589</v>
+        <v>7700</v>
       </c>
       <c r="B142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>7590</v>
+        <v>7701</v>
       </c>
       <c r="B143" t="s">
         <v>1</v>
@@ -2743,7 +2675,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>7591</v>
+        <v>7702</v>
       </c>
       <c r="B144" t="s">
         <v>1</v>
@@ -2751,7 +2683,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>7592</v>
+        <v>7703</v>
       </c>
       <c r="B145" t="s">
         <v>1</v>
@@ -2759,7 +2691,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>7597</v>
+        <v>9412</v>
       </c>
       <c r="B146" t="s">
         <v>2</v>
@@ -2767,7 +2699,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>7607</v>
+        <v>9413</v>
       </c>
       <c r="B147" t="s">
         <v>2</v>
@@ -2775,7 +2707,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>7619</v>
+        <v>9414</v>
       </c>
       <c r="B148" t="s">
         <v>1</v>
@@ -2783,15 +2715,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>7699</v>
+        <v>9418</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>7700</v>
+        <v>9419</v>
       </c>
       <c r="B150" t="s">
         <v>1</v>
@@ -2799,7 +2731,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>7701</v>
+        <v>9440</v>
       </c>
       <c r="B151" t="s">
         <v>1</v>
@@ -2807,7 +2739,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>7702</v>
+        <v>9455</v>
       </c>
       <c r="B152" t="s">
         <v>1</v>
@@ -2815,103 +2747,103 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>7703</v>
+        <v>9457</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>9412</v>
+        <v>9458</v>
       </c>
       <c r="B154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>9413</v>
+        <v>9479</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>9414</v>
+        <v>9480</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>9418</v>
+        <v>9483</v>
       </c>
       <c r="B157" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>9419</v>
+        <v>9484</v>
       </c>
       <c r="B158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>9439</v>
+        <v>9487</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>9440</v>
+        <v>9488</v>
       </c>
       <c r="B160" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>9453</v>
+        <v>9507</v>
       </c>
       <c r="B161" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>9454</v>
+        <v>9508</v>
       </c>
       <c r="B162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>9455</v>
+        <v>9820</v>
       </c>
       <c r="B163" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>9457</v>
+        <v>9821</v>
       </c>
       <c r="B164" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>9458</v>
+        <v>9822</v>
       </c>
       <c r="B165" t="s">
         <v>1</v>
@@ -2919,23 +2851,23 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>9477</v>
+        <v>9823</v>
       </c>
       <c r="B166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>9479</v>
+        <v>9825</v>
       </c>
       <c r="B167" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>9480</v>
+        <v>9829</v>
       </c>
       <c r="B168" t="s">
         <v>0</v>
@@ -2943,55 +2875,55 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>9483</v>
+        <v>9830</v>
       </c>
       <c r="B169" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>9484</v>
+        <v>9831</v>
       </c>
       <c r="B170" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>9487</v>
+        <v>9832</v>
       </c>
       <c r="B171" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>9488</v>
+        <v>9833</v>
       </c>
       <c r="B172" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>9507</v>
+        <v>9834</v>
       </c>
       <c r="B173" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>9508</v>
+        <v>9835</v>
       </c>
       <c r="B174" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>9820</v>
+        <v>9836</v>
       </c>
       <c r="B175" t="s">
         <v>0</v>
@@ -2999,31 +2931,31 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>9821</v>
+        <v>9838</v>
       </c>
       <c r="B176" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>9822</v>
+        <v>9841</v>
       </c>
       <c r="B177" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>9823</v>
+        <v>9846</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>9825</v>
+        <v>9849</v>
       </c>
       <c r="B179" t="s">
         <v>0</v>
@@ -3031,7 +2963,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>9829</v>
+        <v>9852</v>
       </c>
       <c r="B180" t="s">
         <v>0</v>
@@ -3039,15 +2971,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>9830</v>
+        <v>9858</v>
       </c>
       <c r="B181" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>9831</v>
+        <v>9859</v>
       </c>
       <c r="B182" t="s">
         <v>1</v>
@@ -3055,7 +2987,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>9832</v>
+        <v>9862</v>
       </c>
       <c r="B183" t="s">
         <v>0</v>
@@ -3063,7 +2995,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>9833</v>
+        <v>9863</v>
       </c>
       <c r="B184" t="s">
         <v>0</v>
@@ -3071,15 +3003,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>9834</v>
+        <v>9865</v>
       </c>
       <c r="B185" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>9835</v>
+        <v>9867</v>
       </c>
       <c r="B186" t="s">
         <v>0</v>
@@ -3087,31 +3019,31 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>9836</v>
+        <v>9868</v>
       </c>
       <c r="B187" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>9837</v>
+        <v>9869</v>
       </c>
       <c r="B188" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>9838</v>
+        <v>9870</v>
       </c>
       <c r="B189" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>9841</v>
+        <v>9871</v>
       </c>
       <c r="B190" t="s">
         <v>0</v>
@@ -3119,23 +3051,23 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>9846</v>
+        <v>9872</v>
       </c>
       <c r="B191" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>9849</v>
+        <v>9874</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>9852</v>
+        <v>9876</v>
       </c>
       <c r="B193" t="s">
         <v>0</v>
@@ -3143,23 +3075,23 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>9858</v>
+        <v>9877</v>
       </c>
       <c r="B194" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>9859</v>
+        <v>9881</v>
       </c>
       <c r="B195" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>9862</v>
+        <v>9885</v>
       </c>
       <c r="B196" t="s">
         <v>0</v>
@@ -3167,31 +3099,31 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>9863</v>
+        <v>9886</v>
       </c>
       <c r="B197" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>9864</v>
+        <v>9887</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>9865</v>
+        <v>9994</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>9866</v>
+        <v>9995</v>
       </c>
       <c r="B200" t="s">
         <v>0</v>
@@ -3199,7 +3131,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>9867</v>
+        <v>10002</v>
       </c>
       <c r="B201" t="s">
         <v>0</v>
@@ -3207,23 +3139,23 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>9868</v>
+        <v>10012</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>9869</v>
+        <v>10013</v>
       </c>
       <c r="B203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>9870</v>
+        <v>10014</v>
       </c>
       <c r="B204" t="s">
         <v>0</v>
@@ -3231,7 +3163,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>9871</v>
+        <v>10016</v>
       </c>
       <c r="B205" t="s">
         <v>0</v>
@@ -3239,7 +3171,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>9872</v>
+        <v>10022</v>
       </c>
       <c r="B206" t="s">
         <v>1</v>
@@ -3247,7 +3179,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>9874</v>
+        <v>10024</v>
       </c>
       <c r="B207" t="s">
         <v>1</v>
@@ -3255,7 +3187,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>9876</v>
+        <v>10029</v>
       </c>
       <c r="B208" t="s">
         <v>0</v>
@@ -3263,79 +3195,79 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>9877</v>
+        <v>10037</v>
       </c>
       <c r="B209" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>9881</v>
+        <v>10038</v>
       </c>
       <c r="B210" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>9885</v>
+        <v>10039</v>
       </c>
       <c r="B211" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>9886</v>
+        <v>10048</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>9887</v>
+        <v>10051</v>
       </c>
       <c r="B213" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>9994</v>
+        <v>10052</v>
       </c>
       <c r="B214" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>9995</v>
+        <v>10053</v>
       </c>
       <c r="B215" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>10002</v>
+        <v>10054</v>
       </c>
       <c r="B216" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>10012</v>
+        <v>10123</v>
       </c>
       <c r="B217" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>10013</v>
+        <v>10124</v>
       </c>
       <c r="B218" t="s">
         <v>0</v>
@@ -3343,95 +3275,95 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>10014</v>
+        <v>10835</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>10016</v>
+        <v>10836</v>
       </c>
       <c r="B220" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>10022</v>
+        <v>10875</v>
       </c>
       <c r="B221" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="2">
-        <v>10023</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1</v>
+      <c r="A222">
+        <v>11709</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>10024</v>
+        <v>11731</v>
       </c>
       <c r="B223" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>10029</v>
+        <v>11742</v>
       </c>
       <c r="B224" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>10037</v>
+        <v>11856</v>
       </c>
       <c r="B225" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>10038</v>
+        <v>12417</v>
       </c>
       <c r="B226" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>10039</v>
+        <v>12430</v>
       </c>
       <c r="B227" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>10048</v>
+        <v>12432</v>
       </c>
       <c r="B228" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229">
-        <v>10051</v>
+        <v>12439</v>
       </c>
       <c r="B229" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230">
-        <v>10052</v>
+        <v>13301</v>
       </c>
       <c r="B230" t="s">
         <v>1</v>
@@ -3439,7 +3371,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231">
-        <v>10053</v>
+        <v>13431</v>
       </c>
       <c r="B231" t="s">
         <v>1</v>
@@ -3447,7 +3379,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
-        <v>10054</v>
+        <v>13780</v>
       </c>
       <c r="B232" t="s">
         <v>1</v>
@@ -3455,71 +3387,71 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233">
-        <v>10058</v>
+        <v>13841</v>
       </c>
       <c r="B233" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234">
-        <v>10123</v>
+        <v>13843</v>
       </c>
       <c r="B234" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235">
-        <v>10124</v>
+        <v>13956</v>
       </c>
       <c r="B235" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
-        <v>10835</v>
+        <v>14194</v>
       </c>
       <c r="B236" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
-        <v>10836</v>
+        <v>14258</v>
       </c>
       <c r="B237" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238">
-        <v>10875</v>
+        <v>14283</v>
       </c>
       <c r="B238" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239">
-        <v>11709</v>
+        <v>14301</v>
       </c>
       <c r="B239" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
-        <v>11731</v>
+        <v>14322</v>
       </c>
       <c r="B240" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
-        <v>11742</v>
+        <v>14521</v>
       </c>
       <c r="B241" t="s">
         <v>1</v>
@@ -3527,7 +3459,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242">
-        <v>11856</v>
+        <v>14783</v>
       </c>
       <c r="B242" t="s">
         <v>1</v>
@@ -3535,15 +3467,15 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243">
-        <v>12417</v>
+        <v>15226</v>
       </c>
       <c r="B243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244">
-        <v>12430</v>
+        <v>15512</v>
       </c>
       <c r="B244" t="s">
         <v>1</v>
@@ -3551,7 +3483,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245">
-        <v>12432</v>
+        <v>15622</v>
       </c>
       <c r="B245" t="s">
         <v>1</v>
@@ -3559,7 +3491,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246">
-        <v>12439</v>
+        <v>15626</v>
       </c>
       <c r="B246" t="s">
         <v>1</v>
@@ -3567,7 +3499,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
-        <v>13301</v>
+        <v>15628</v>
       </c>
       <c r="B247" t="s">
         <v>1</v>
@@ -3575,7 +3507,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248">
-        <v>13431</v>
+        <v>15629</v>
       </c>
       <c r="B248" t="s">
         <v>1</v>
@@ -3583,7 +3515,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249">
-        <v>13721</v>
+        <v>15632</v>
       </c>
       <c r="B249" t="s">
         <v>1</v>
@@ -3591,15 +3523,15 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250">
-        <v>13780</v>
+        <v>15641</v>
       </c>
       <c r="B250" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251">
-        <v>13841</v>
+        <v>15664</v>
       </c>
       <c r="B251" t="s">
         <v>1</v>
@@ -3607,7 +3539,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
-        <v>13843</v>
+        <v>15666</v>
       </c>
       <c r="B252" t="s">
         <v>1</v>
@@ -3615,7 +3547,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253">
-        <v>13956</v>
+        <v>15689</v>
       </c>
       <c r="B253" t="s">
         <v>1</v>
@@ -3623,7 +3555,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254">
-        <v>14194</v>
+        <v>15692</v>
       </c>
       <c r="B254" t="s">
         <v>1</v>
@@ -3631,7 +3563,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
-        <v>14258</v>
+        <v>15776</v>
       </c>
       <c r="B255" t="s">
         <v>1</v>
@@ -3639,7 +3571,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
-        <v>14283</v>
+        <v>15777</v>
       </c>
       <c r="B256" t="s">
         <v>1</v>
@@ -3647,7 +3579,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257">
-        <v>14301</v>
+        <v>15782</v>
       </c>
       <c r="B257" t="s">
         <v>1</v>
@@ -3655,7 +3587,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258">
-        <v>14322</v>
+        <v>16281</v>
       </c>
       <c r="B258" t="s">
         <v>1</v>
@@ -3663,7 +3595,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259">
-        <v>14521</v>
+        <v>16490</v>
       </c>
       <c r="B259" t="s">
         <v>1</v>
@@ -3671,7 +3603,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260">
-        <v>14626</v>
+        <v>17072</v>
       </c>
       <c r="B260" t="s">
         <v>1</v>
@@ -3679,7 +3611,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261">
-        <v>14783</v>
+        <v>17163</v>
       </c>
       <c r="B261" t="s">
         <v>1</v>
@@ -3687,15 +3619,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262">
-        <v>15226</v>
+        <v>17329</v>
       </c>
       <c r="B262" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263">
-        <v>15511</v>
+        <v>17632</v>
       </c>
       <c r="B263" t="s">
         <v>1</v>
@@ -3703,7 +3635,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264">
-        <v>15512</v>
+        <v>18280</v>
       </c>
       <c r="B264" t="s">
         <v>1</v>
@@ -3711,199 +3643,199 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265">
-        <v>15622</v>
+        <v>28211</v>
       </c>
       <c r="B265" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
-        <v>15626</v>
+        <v>28470</v>
       </c>
       <c r="B266" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
-        <v>15628</v>
+        <v>28501</v>
       </c>
       <c r="B267" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268">
-        <v>15629</v>
+        <v>28502</v>
       </c>
       <c r="B268" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269">
-        <v>15632</v>
+        <v>28652</v>
       </c>
       <c r="B269" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270">
-        <v>15641</v>
+        <v>28663</v>
       </c>
       <c r="B270" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271">
-        <v>15664</v>
+        <v>28664</v>
       </c>
       <c r="B271" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272">
-        <v>15666</v>
+        <v>28665</v>
       </c>
       <c r="B272" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273">
-        <v>15689</v>
+        <v>28666</v>
       </c>
       <c r="B273" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274">
-        <v>15692</v>
+        <v>28668</v>
       </c>
       <c r="B274" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275">
-        <v>15775</v>
+        <v>28669</v>
       </c>
       <c r="B275" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276">
-        <v>15776</v>
+        <v>28670</v>
       </c>
       <c r="B276" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277">
-        <v>15777</v>
+        <v>28671</v>
       </c>
       <c r="B277" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278">
-        <v>15782</v>
+        <v>28673</v>
       </c>
       <c r="B278" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279">
-        <v>16162</v>
+        <v>28697</v>
       </c>
       <c r="B279" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
-        <v>16281</v>
+        <v>28698</v>
       </c>
       <c r="B280" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
-        <v>16490</v>
+        <v>28699</v>
       </c>
       <c r="B281" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282">
-        <v>16911</v>
+        <v>28700</v>
       </c>
       <c r="B282" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283">
-        <v>17072</v>
+        <v>28702</v>
       </c>
       <c r="B283" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284">
-        <v>17163</v>
+        <v>28704</v>
       </c>
       <c r="B284" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
-        <v>17329</v>
+        <v>28707</v>
       </c>
       <c r="B285" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
-        <v>17632</v>
+        <v>28710</v>
       </c>
       <c r="B286" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287">
-        <v>17633</v>
+        <v>28718</v>
       </c>
       <c r="B287" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288">
-        <v>18280</v>
+        <v>28766</v>
       </c>
       <c r="B288" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289">
-        <v>28211</v>
+        <v>28767</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
@@ -3911,7 +3843,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290">
-        <v>28470</v>
+        <v>28770</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
@@ -3919,7 +3851,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291">
-        <v>28501</v>
+        <v>28771</v>
       </c>
       <c r="B291" t="s">
         <v>4</v>
@@ -3927,7 +3859,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292">
-        <v>28502</v>
+        <v>28945</v>
       </c>
       <c r="B292" t="s">
         <v>4</v>
@@ -3935,7 +3867,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293">
-        <v>28652</v>
+        <v>28947</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
@@ -3943,7 +3875,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294">
-        <v>28663</v>
+        <v>28953</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
@@ -3951,7 +3883,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295">
-        <v>28664</v>
+        <v>28954</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
@@ -3959,7 +3891,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296">
-        <v>28665</v>
+        <v>28955</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
@@ -3967,7 +3899,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297">
-        <v>28666</v>
+        <v>28990</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
@@ -3975,7 +3907,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298">
-        <v>28668</v>
+        <v>28993</v>
       </c>
       <c r="B298" t="s">
         <v>4</v>
@@ -3983,7 +3915,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299">
-        <v>28669</v>
+        <v>28995</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
@@ -3991,7 +3923,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300">
-        <v>28670</v>
+        <v>28998</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
@@ -3999,7 +3931,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301">
-        <v>28671</v>
+        <v>29001</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
@@ -4007,7 +3939,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302">
-        <v>28673</v>
+        <v>29016</v>
       </c>
       <c r="B302" t="s">
         <v>4</v>
@@ -4015,7 +3947,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303">
-        <v>28697</v>
+        <v>29017</v>
       </c>
       <c r="B303" t="s">
         <v>4</v>
@@ -4023,7 +3955,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
-        <v>28698</v>
+        <v>29018</v>
       </c>
       <c r="B304" t="s">
         <v>4</v>
@@ -4031,7 +3963,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305">
-        <v>28699</v>
+        <v>29019</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
@@ -4039,7 +3971,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306">
-        <v>28700</v>
+        <v>29020</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
@@ -4047,7 +3979,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307">
-        <v>28702</v>
+        <v>29023</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
@@ -4055,7 +3987,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308">
-        <v>28704</v>
+        <v>29024</v>
       </c>
       <c r="B308" t="s">
         <v>4</v>
@@ -4063,7 +3995,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309">
-        <v>28706</v>
+        <v>29226</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
@@ -4071,7 +4003,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310">
-        <v>28707</v>
+        <v>29239</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
@@ -4079,7 +4011,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311">
-        <v>28710</v>
+        <v>29240</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
@@ -4087,7 +4019,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312">
-        <v>28718</v>
+        <v>29255</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
@@ -4095,258 +4027,29 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313">
-        <v>28766</v>
+        <v>29284</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314">
-        <v>28767</v>
-      </c>
-      <c r="B314" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315">
-        <v>28770</v>
-      </c>
-      <c r="B315" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316">
-        <v>28771</v>
-      </c>
-      <c r="B316" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317">
-        <v>28945</v>
-      </c>
-      <c r="B317" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318">
-        <v>28947</v>
-      </c>
-      <c r="B318" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319">
-        <v>28951</v>
-      </c>
-      <c r="B319" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>28953</v>
-      </c>
-      <c r="B320" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>28954</v>
-      </c>
-      <c r="B321" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>28955</v>
-      </c>
-      <c r="B322" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>28990</v>
-      </c>
-      <c r="B323" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>28993</v>
-      </c>
-      <c r="B324" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325">
-        <v>28995</v>
-      </c>
-      <c r="B325" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326">
-        <v>28998</v>
-      </c>
-      <c r="B326" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327">
-        <v>28999</v>
-      </c>
-      <c r="B327" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328">
-        <v>29001</v>
-      </c>
-      <c r="B328" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329">
-        <v>29016</v>
-      </c>
-      <c r="B329" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330">
-        <v>29017</v>
-      </c>
-      <c r="B330" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331">
-        <v>29018</v>
-      </c>
-      <c r="B331" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332">
-        <v>29019</v>
-      </c>
-      <c r="B332" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333">
-        <v>29020</v>
-      </c>
-      <c r="B333" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334">
-        <v>29023</v>
-      </c>
-      <c r="B334" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335">
-        <v>29024</v>
-      </c>
-      <c r="B335" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <v>29226</v>
-      </c>
-      <c r="B336" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>29239</v>
-      </c>
-      <c r="B337" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338">
-        <v>29240</v>
-      </c>
-      <c r="B338" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339">
-        <v>29255</v>
-      </c>
-      <c r="B339" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340">
-        <v>29275</v>
-      </c>
-      <c r="B340" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341">
-        <v>29284</v>
-      </c>
-      <c r="B341" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342">
-        <v>29477</v>
-      </c>
-      <c r="B342" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:B338">
-    <sortCondition ref="A2:A338"/>
+  <sortState ref="A2:B313">
+    <sortCondition ref="A2:A313"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A313">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
-    <sheetView topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="N215" sqref="N215"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4364,7 +4067,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>18493</v>
+        <v>2414</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -4372,7 +4075,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>18688</v>
+        <v>4097</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -4380,7 +4083,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>18689</v>
+        <v>4478</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -4388,7 +4091,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>18690</v>
+        <v>4507</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -4396,7 +4099,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>18691</v>
+        <v>6134</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -4404,7 +4107,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>18692</v>
+        <v>6913</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -4412,7 +4115,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>18693</v>
+        <v>9456</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -4420,7 +4123,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>18694</v>
+        <v>9840</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -4428,7 +4131,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>18696</v>
+        <v>18493</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -4436,7 +4139,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>18697</v>
+        <v>18688</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -4444,7 +4147,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>18698</v>
+        <v>18689</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -4452,7 +4155,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>18699</v>
+        <v>18690</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -4460,7 +4163,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>18700</v>
+        <v>18691</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -4468,7 +4171,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>18703</v>
+        <v>18692</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
@@ -4476,7 +4179,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>18704</v>
+        <v>18693</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
@@ -4484,7 +4187,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>18705</v>
+        <v>18694</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -4492,7 +4195,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>18706</v>
+        <v>18696</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -4500,7 +4203,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>18707</v>
+        <v>18697</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -4508,7 +4211,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>18708</v>
+        <v>18698</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -4516,7 +4219,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>18709</v>
+        <v>18699</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -4524,7 +4227,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>18710</v>
+        <v>18700</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -4532,7 +4235,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>18865</v>
+        <v>18703</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -4540,7 +4243,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>18866</v>
+        <v>18704</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -4548,7 +4251,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>18867</v>
+        <v>18705</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -4556,7 +4259,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>18868</v>
+        <v>18706</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -4564,7 +4267,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>18869</v>
+        <v>18707</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
@@ -4572,7 +4275,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>18870</v>
+        <v>18708</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -4580,7 +4283,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>18990</v>
+        <v>18709</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -4588,7 +4291,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>18992</v>
+        <v>18710</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -4596,7 +4299,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>19221</v>
+        <v>18865</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -4604,7 +4307,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>19222</v>
+        <v>18866</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -4612,7 +4315,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>19223</v>
+        <v>18867</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -4620,7 +4323,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>19224</v>
+        <v>18868</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -4628,7 +4331,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>19230</v>
+        <v>18869</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -4636,7 +4339,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>19233</v>
+        <v>18870</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -4644,7 +4347,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>19358</v>
+        <v>18990</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -4652,7 +4355,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>19634</v>
+        <v>18992</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -4660,7 +4363,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>20153</v>
+        <v>19221</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -4668,7 +4371,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>20311</v>
+        <v>19222</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -4676,7 +4379,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>20562</v>
+        <v>19223</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
@@ -4684,7 +4387,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>20880</v>
+        <v>19224</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -4692,7 +4395,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>20881</v>
+        <v>19230</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
@@ -4700,7 +4403,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>20882</v>
+        <v>19233</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -4708,7 +4411,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>20883</v>
+        <v>19358</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
@@ -4716,7 +4419,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>20895</v>
+        <v>19634</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
@@ -4724,7 +4427,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>20896</v>
+        <v>20153</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
@@ -4732,7 +4435,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>20897</v>
+        <v>20311</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
@@ -4740,7 +4443,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>21118</v>
+        <v>20562</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
@@ -4748,7 +4451,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>21135</v>
+        <v>20880</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
@@ -4756,7 +4459,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>21284</v>
+        <v>20881</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
@@ -4764,7 +4467,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>21285</v>
+        <v>20882</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
@@ -4772,7 +4475,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>22425</v>
+        <v>20883</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
@@ -4780,7 +4483,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>22426</v>
+        <v>20895</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
@@ -4788,7 +4491,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>22427</v>
+        <v>20896</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
@@ -4796,7 +4499,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>22521</v>
+        <v>20897</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
@@ -4804,7 +4507,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>22537</v>
+        <v>21118</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
@@ -4812,7 +4515,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>22538</v>
+        <v>21135</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
@@ -4820,7 +4523,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>22539</v>
+        <v>21284</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
@@ -4828,7 +4531,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>22540</v>
+        <v>21285</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
@@ -4836,7 +4539,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>22541</v>
+        <v>22425</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
@@ -4844,7 +4547,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62">
-        <v>22542</v>
+        <v>22426</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
@@ -4852,7 +4555,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63">
-        <v>22543</v>
+        <v>22427</v>
       </c>
       <c r="B63" t="s">
         <v>3</v>
@@ -4860,7 +4563,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
-        <v>22544</v>
+        <v>22521</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -4868,7 +4571,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
-        <v>22546</v>
+        <v>22537</v>
       </c>
       <c r="B65" t="s">
         <v>3</v>
@@ -4876,7 +4579,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
-        <v>22548</v>
+        <v>22538</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -4884,7 +4587,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67">
-        <v>22549</v>
+        <v>22539</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -4892,7 +4595,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68">
-        <v>22589</v>
+        <v>22540</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -4900,7 +4603,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69">
-        <v>22590</v>
+        <v>22541</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -4908,7 +4611,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
-        <v>22591</v>
+        <v>22542</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
@@ -4916,7 +4619,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>22592</v>
+        <v>22543</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
@@ -4924,7 +4627,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>22602</v>
+        <v>22544</v>
       </c>
       <c r="B72" t="s">
         <v>3</v>
@@ -4932,7 +4635,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73">
-        <v>22609</v>
+        <v>22546</v>
       </c>
       <c r="B73" t="s">
         <v>3</v>
@@ -4940,7 +4643,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>22611</v>
+        <v>22548</v>
       </c>
       <c r="B74" t="s">
         <v>3</v>
@@ -4948,7 +4651,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>22612</v>
+        <v>22549</v>
       </c>
       <c r="B75" t="s">
         <v>3</v>
@@ -4956,7 +4659,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>22779</v>
+        <v>22589</v>
       </c>
       <c r="B76" t="s">
         <v>3</v>
@@ -4964,7 +4667,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>22813</v>
+        <v>22590</v>
       </c>
       <c r="B77" t="s">
         <v>3</v>
@@ -4972,7 +4675,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>22814</v>
+        <v>22591</v>
       </c>
       <c r="B78" t="s">
         <v>3</v>
@@ -4980,7 +4683,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>22815</v>
+        <v>22592</v>
       </c>
       <c r="B79" t="s">
         <v>3</v>
@@ -4988,7 +4691,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>22816</v>
+        <v>22602</v>
       </c>
       <c r="B80" t="s">
         <v>3</v>
@@ -4996,7 +4699,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>22817</v>
+        <v>22609</v>
       </c>
       <c r="B81" t="s">
         <v>3</v>
@@ -5004,7 +4707,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>22818</v>
+        <v>22611</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
@@ -5012,7 +4715,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>22867</v>
+        <v>22612</v>
       </c>
       <c r="B83" t="s">
         <v>3</v>
@@ -5020,7 +4723,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>22868</v>
+        <v>22779</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -5028,7 +4731,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>23582</v>
+        <v>22813</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -5036,7 +4739,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>23583</v>
+        <v>22814</v>
       </c>
       <c r="B86" t="s">
         <v>3</v>
@@ -5044,7 +4747,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>23584</v>
+        <v>22815</v>
       </c>
       <c r="B87" t="s">
         <v>3</v>
@@ -5052,7 +4755,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>23585</v>
+        <v>22816</v>
       </c>
       <c r="B88" t="s">
         <v>3</v>
@@ -5060,7 +4763,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>23586</v>
+        <v>22817</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -5068,7 +4771,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>23596</v>
+        <v>22818</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -5076,7 +4779,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91">
-        <v>23598</v>
+        <v>22867</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -5084,7 +4787,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92">
-        <v>23599</v>
+        <v>22868</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -5092,7 +4795,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
-        <v>23600</v>
+        <v>23582</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -5100,7 +4803,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
-        <v>23766</v>
+        <v>23583</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -5108,7 +4811,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95">
-        <v>23767</v>
+        <v>23584</v>
       </c>
       <c r="B95" t="s">
         <v>3</v>
@@ -5116,7 +4819,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96">
-        <v>23768</v>
+        <v>23585</v>
       </c>
       <c r="B96" t="s">
         <v>3</v>
@@ -5124,7 +4827,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97">
-        <v>23769</v>
+        <v>23586</v>
       </c>
       <c r="B97" t="s">
         <v>3</v>
@@ -5132,7 +4835,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98">
-        <v>23770</v>
+        <v>23598</v>
       </c>
       <c r="B98" t="s">
         <v>3</v>
@@ -5140,7 +4843,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99">
-        <v>23771</v>
+        <v>23599</v>
       </c>
       <c r="B99" t="s">
         <v>3</v>
@@ -5148,7 +4851,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>23772</v>
+        <v>23600</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -5156,7 +4859,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101">
-        <v>23773</v>
+        <v>23766</v>
       </c>
       <c r="B101" t="s">
         <v>3</v>
@@ -5164,7 +4867,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102">
-        <v>23774</v>
+        <v>23767</v>
       </c>
       <c r="B102" t="s">
         <v>3</v>
@@ -5172,7 +4875,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103">
-        <v>23775</v>
+        <v>23768</v>
       </c>
       <c r="B103" t="s">
         <v>3</v>
@@ -5180,7 +4883,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>23776</v>
+        <v>23769</v>
       </c>
       <c r="B104" t="s">
         <v>3</v>
@@ -5188,7 +4891,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105">
-        <v>23777</v>
+        <v>23770</v>
       </c>
       <c r="B105" t="s">
         <v>3</v>
@@ -5196,7 +4899,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
-        <v>23779</v>
+        <v>23771</v>
       </c>
       <c r="B106" t="s">
         <v>3</v>
@@ -5204,7 +4907,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
-        <v>23780</v>
+        <v>23772</v>
       </c>
       <c r="B107" t="s">
         <v>3</v>
@@ -5212,7 +4915,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
-        <v>23781</v>
+        <v>23773</v>
       </c>
       <c r="B108" t="s">
         <v>3</v>
@@ -5220,7 +4923,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109">
-        <v>23782</v>
+        <v>23774</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -5228,7 +4931,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110">
-        <v>23783</v>
+        <v>23776</v>
       </c>
       <c r="B110" t="s">
         <v>3</v>
@@ -5236,7 +4939,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111">
-        <v>23784</v>
+        <v>23777</v>
       </c>
       <c r="B111" t="s">
         <v>3</v>
@@ -5244,7 +4947,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112">
-        <v>23785</v>
+        <v>23778</v>
       </c>
       <c r="B112" t="s">
         <v>3</v>
@@ -5252,7 +4955,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>23786</v>
+        <v>23779</v>
       </c>
       <c r="B113" t="s">
         <v>3</v>
@@ -5260,7 +4963,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>23787</v>
+        <v>23780</v>
       </c>
       <c r="B114" t="s">
         <v>3</v>
@@ -5268,7 +4971,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>23788</v>
+        <v>23781</v>
       </c>
       <c r="B115" t="s">
         <v>3</v>
@@ -5276,7 +4979,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>23789</v>
+        <v>23782</v>
       </c>
       <c r="B116" t="s">
         <v>3</v>
@@ -5284,7 +4987,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>23790</v>
+        <v>23783</v>
       </c>
       <c r="B117" t="s">
         <v>3</v>
@@ -5292,7 +4995,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>23792</v>
+        <v>23784</v>
       </c>
       <c r="B118" t="s">
         <v>3</v>
@@ -5300,7 +5003,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>23793</v>
+        <v>23785</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -5308,7 +5011,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>23842</v>
+        <v>23786</v>
       </c>
       <c r="B120" t="s">
         <v>3</v>
@@ -5316,7 +5019,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>23843</v>
+        <v>23787</v>
       </c>
       <c r="B121" t="s">
         <v>3</v>
@@ -5324,7 +5027,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>23844</v>
+        <v>23788</v>
       </c>
       <c r="B122" t="s">
         <v>3</v>
@@ -5332,7 +5035,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>23845</v>
+        <v>23789</v>
       </c>
       <c r="B123" t="s">
         <v>3</v>
@@ -5340,7 +5043,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>23846</v>
+        <v>23790</v>
       </c>
       <c r="B124" t="s">
         <v>3</v>
@@ -5348,7 +5051,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125">
-        <v>23847</v>
+        <v>23792</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -5356,7 +5059,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>23848</v>
+        <v>23793</v>
       </c>
       <c r="B126" t="s">
         <v>3</v>
@@ -5364,7 +5067,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>23849</v>
+        <v>23842</v>
       </c>
       <c r="B127" t="s">
         <v>3</v>
@@ -5372,7 +5075,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>23850</v>
+        <v>23843</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -5380,7 +5083,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>23854</v>
+        <v>23844</v>
       </c>
       <c r="B129" t="s">
         <v>3</v>
@@ -5388,7 +5091,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>23857</v>
+        <v>23845</v>
       </c>
       <c r="B130" t="s">
         <v>3</v>
@@ -5396,7 +5099,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>23858</v>
+        <v>23846</v>
       </c>
       <c r="B131" t="s">
         <v>3</v>
@@ -5404,7 +5107,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132">
-        <v>23859</v>
+        <v>23847</v>
       </c>
       <c r="B132" t="s">
         <v>3</v>
@@ -5412,7 +5115,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>23861</v>
+        <v>23848</v>
       </c>
       <c r="B133" t="s">
         <v>3</v>
@@ -5420,7 +5123,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134">
-        <v>23900</v>
+        <v>23849</v>
       </c>
       <c r="B134" t="s">
         <v>3</v>
@@ -5428,7 +5131,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>23901</v>
+        <v>23850</v>
       </c>
       <c r="B135" t="s">
         <v>3</v>
@@ -5436,7 +5139,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>23902</v>
+        <v>23854</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -5444,7 +5147,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>23903</v>
+        <v>23857</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -5452,7 +5155,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>24341</v>
+        <v>23858</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -5460,7 +5163,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>25047</v>
+        <v>23859</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -5468,7 +5171,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>25052</v>
+        <v>23861</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -5476,7 +5179,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>25970</v>
+        <v>23900</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5484,7 +5187,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>26292</v>
+        <v>23901</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5492,7 +5195,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>26569</v>
+        <v>23902</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5500,7 +5203,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>26570</v>
+        <v>24341</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5508,7 +5211,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>26833</v>
+        <v>25047</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -5516,7 +5219,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>26871</v>
+        <v>25052</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -5524,7 +5227,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>27690</v>
+        <v>25970</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -5532,7 +5235,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148">
-        <v>27913</v>
+        <v>26292</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -5540,7 +5243,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
-        <v>27914</v>
+        <v>26569</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -5548,7 +5251,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150">
-        <v>27915</v>
+        <v>26570</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -5556,7 +5259,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
-        <v>27917</v>
+        <v>26833</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -5564,7 +5267,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152">
-        <v>27918</v>
+        <v>26871</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -5572,7 +5275,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153">
-        <v>27919</v>
+        <v>27690</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -5580,7 +5283,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154">
-        <v>27920</v>
+        <v>27913</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -5588,7 +5291,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155">
-        <v>27921</v>
+        <v>27914</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -5596,7 +5299,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156">
-        <v>27922</v>
+        <v>27915</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -5604,7 +5307,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
-        <v>27939</v>
+        <v>27917</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -5612,7 +5315,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
-        <v>29630</v>
+        <v>27918</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -5620,7 +5323,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>29661</v>
+        <v>27919</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -5628,7 +5331,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>29872</v>
+        <v>27920</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -5636,7 +5339,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>29873</v>
+        <v>27921</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -5644,7 +5347,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>29874</v>
+        <v>27922</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
@@ -5652,7 +5355,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163">
-        <v>29962</v>
+        <v>27939</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
@@ -5660,7 +5363,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164">
-        <v>29970</v>
+        <v>28505</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
@@ -5668,7 +5371,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165">
-        <v>29973</v>
+        <v>28506</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
@@ -5676,7 +5379,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166">
-        <v>29979</v>
+        <v>28617</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
@@ -5684,7 +5387,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167">
-        <v>29980</v>
+        <v>28635</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
@@ -5692,7 +5395,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
-        <v>29983</v>
+        <v>29630</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
@@ -5700,7 +5403,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169">
-        <v>30068</v>
+        <v>29661</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
@@ -5708,7 +5411,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
-        <v>30069</v>
+        <v>29872</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
@@ -5716,7 +5419,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171">
-        <v>30086</v>
+        <v>29873</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
@@ -5724,7 +5427,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
-        <v>30087</v>
+        <v>29874</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
@@ -5732,7 +5435,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
-        <v>30212</v>
+        <v>29924</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
@@ -5740,7 +5443,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174">
-        <v>30301</v>
+        <v>29962</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
@@ -5748,7 +5451,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175">
-        <v>30304</v>
+        <v>29970</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
@@ -5756,7 +5459,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
-        <v>30401</v>
+        <v>29973</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
@@ -5764,7 +5467,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
-        <v>30412</v>
+        <v>29979</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -5772,7 +5475,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
-        <v>30413</v>
+        <v>29980</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
@@ -5780,7 +5483,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179">
-        <v>30415</v>
+        <v>29983</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
@@ -5788,7 +5491,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180">
-        <v>30416</v>
+        <v>30068</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
@@ -5796,7 +5499,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181">
-        <v>30421</v>
+        <v>30069</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
@@ -5804,7 +5507,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182">
-        <v>30518</v>
+        <v>30086</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
@@ -5812,7 +5515,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
-        <v>30522</v>
+        <v>30087</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
@@ -5820,7 +5523,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184">
-        <v>30523</v>
+        <v>30212</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
@@ -5828,7 +5531,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185">
-        <v>30524</v>
+        <v>30301</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
@@ -5836,7 +5539,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <v>30525</v>
+        <v>30304</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
@@ -5844,7 +5547,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187">
-        <v>30630</v>
+        <v>30401</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
@@ -5852,7 +5555,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
-        <v>30640</v>
+        <v>30412</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
@@ -5860,7 +5563,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>30882</v>
+        <v>30413</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
@@ -5868,7 +5571,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>30890</v>
+        <v>30415</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
@@ -5876,7 +5579,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
-        <v>30898</v>
+        <v>30416</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
@@ -5884,7 +5587,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>30940</v>
+        <v>30421</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
@@ -5892,7 +5595,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>30941</v>
+        <v>30518</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
@@ -5900,7 +5603,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>30942</v>
+        <v>30522</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
@@ -5908,7 +5611,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>30943</v>
+        <v>30523</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
@@ -5916,7 +5619,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196">
-        <v>30944</v>
+        <v>30524</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
@@ -5924,7 +5627,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197">
-        <v>30949</v>
+        <v>30525</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
@@ -5932,7 +5635,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198">
-        <v>30950</v>
+        <v>30630</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
@@ -5940,7 +5643,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199">
-        <v>31010</v>
+        <v>30640</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
@@ -5948,7 +5651,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200">
-        <v>31027</v>
+        <v>30882</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
@@ -5956,7 +5659,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201">
-        <v>31089</v>
+        <v>30890</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
@@ -5964,7 +5667,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
-        <v>31224</v>
+        <v>30897</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
@@ -5972,7 +5675,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
-        <v>31267</v>
+        <v>30898</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
@@ -5980,7 +5683,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204">
-        <v>275</v>
+        <v>30940</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
@@ -5988,7 +5691,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
-        <v>2414</v>
+        <v>30941</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
@@ -5996,7 +5699,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206">
-        <v>4097</v>
+        <v>30942</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
@@ -6004,7 +5707,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
-        <v>4478</v>
+        <v>30943</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
@@ -6012,7 +5715,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208">
-        <v>4507</v>
+        <v>30944</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
@@ -6020,7 +5723,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209">
-        <v>6134</v>
+        <v>30949</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
@@ -6028,7 +5731,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
-        <v>6696</v>
+        <v>30950</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
@@ -6036,7 +5739,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
-        <v>6913</v>
+        <v>31010</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
@@ -6044,7 +5747,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>9456</v>
+        <v>31027</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
@@ -6052,7 +5755,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>9840</v>
+        <v>31089</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
@@ -6060,7 +5763,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214">
-        <v>29803</v>
+        <v>31224</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
@@ -6068,72 +5771,19 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215">
-        <v>29924</v>
+        <v>31267</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>30897</v>
-      </c>
-      <c r="B216" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>28617</v>
-      </c>
-      <c r="B217" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>28505</v>
-      </c>
-      <c r="B218" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <v>28506</v>
-      </c>
-      <c r="B219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>30852</v>
-      </c>
-      <c r="B220" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>28635</v>
-      </c>
-      <c r="B221" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>23778</v>
-      </c>
-      <c r="B222" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:B198">
-    <sortCondition ref="A2:A198"/>
+  <sortState ref="A2:B215">
+    <sortCondition ref="A2:A215"/>
   </sortState>
+  <conditionalFormatting sqref="A2:A215">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>